--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cthrc1-Fzd6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Cthrc1</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H2">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J2">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>13.21223933333333</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N2">
-        <v>39.636718</v>
+        <v>85.759528</v>
       </c>
       <c r="O2">
-        <v>0.8149747101495924</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P2">
-        <v>0.8149747101495927</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q2">
-        <v>4.931930759543333</v>
+        <v>33.44597769908889</v>
       </c>
       <c r="R2">
-        <v>44.38737683589</v>
+        <v>301.0137992918</v>
       </c>
       <c r="S2">
-        <v>0.002650423622071922</v>
+        <v>0.00915527453013113</v>
       </c>
       <c r="T2">
-        <v>0.002650423622071923</v>
+        <v>0.009155274530131128</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H3">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J3">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>7.988209000000001</v>
       </c>
       <c r="O3">
-        <v>0.1642464018940561</v>
+        <v>0.08438608327351124</v>
       </c>
       <c r="P3">
-        <v>0.1642464018940561</v>
+        <v>0.08438608327351126</v>
       </c>
       <c r="Q3">
-        <v>0.9939595321883332</v>
+        <v>3.115379320530556</v>
       </c>
       <c r="R3">
-        <v>8.945635789695</v>
+        <v>28.03841388477501</v>
       </c>
       <c r="S3">
-        <v>0.000534154665167977</v>
+        <v>0.0008527827531777491</v>
       </c>
       <c r="T3">
-        <v>0.0005341546651679772</v>
+        <v>0.0008527827531777491</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3732849999999999</v>
+        <v>1.169991666666667</v>
       </c>
       <c r="H4">
-        <v>1.119855</v>
+        <v>3.509975</v>
       </c>
       <c r="I4">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="J4">
-        <v>0.003252154439964676</v>
+        <v>0.01010572739125383</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,90 +676,90 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.327069</v>
+        <v>0.304966</v>
       </c>
       <c r="N4">
-        <v>0.9812070000000001</v>
+        <v>0.914898</v>
       </c>
       <c r="O4">
-        <v>0.02017469989371348</v>
+        <v>0.009664827098886481</v>
       </c>
       <c r="P4">
-        <v>0.02017469989371349</v>
+        <v>0.009664827098886483</v>
       </c>
       <c r="Q4">
-        <v>0.122089951665</v>
+        <v>0.3568076786166667</v>
       </c>
       <c r="R4">
-        <v>1.098809564985</v>
+        <v>3.21126910755</v>
       </c>
       <c r="S4">
-        <v>6.561123983429517E-05</v>
+        <v>9.767010794494938E-05</v>
       </c>
       <c r="T4">
-        <v>6.56112398342952E-05</v>
+        <v>9.767010794494938E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3732849999999999</v>
+        <v>113.5508423333333</v>
       </c>
       <c r="H5">
-        <v>1.119855</v>
+        <v>340.652527</v>
       </c>
       <c r="I5">
-        <v>0.003252154439964676</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J5">
-        <v>0.003252154439964676</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.009795</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N5">
-        <v>0.029385</v>
+        <v>85.759528</v>
       </c>
       <c r="O5">
-        <v>0.0006041880626379251</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P5">
-        <v>0.0006041880626379253</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q5">
-        <v>0.003656326574999999</v>
+        <v>3246.022214169695</v>
       </c>
       <c r="R5">
-        <v>0.032906939175</v>
+        <v>29214.19992752725</v>
       </c>
       <c r="S5">
-        <v>1.964912890481584E-06</v>
+        <v>0.8885440506179976</v>
       </c>
       <c r="T5">
-        <v>1.964912890481585E-06</v>
+        <v>0.8885440506179976</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +788,40 @@
         <v>340.652527</v>
       </c>
       <c r="I6">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J6">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>13.21223933333333</v>
+        <v>2.662736333333334</v>
       </c>
       <c r="N6">
-        <v>39.636718</v>
+        <v>7.988209000000001</v>
       </c>
       <c r="O6">
-        <v>0.8149747101495924</v>
+        <v>0.08438608327351124</v>
       </c>
       <c r="P6">
-        <v>0.8149747101495927</v>
+        <v>0.08438608327351126</v>
       </c>
       <c r="Q6">
-        <v>1500.260905409599</v>
+        <v>302.3559535615714</v>
       </c>
       <c r="R6">
-        <v>13502.34814868639</v>
+        <v>2721.203582054143</v>
       </c>
       <c r="S6">
-        <v>0.8062414370425577</v>
+        <v>0.08276486295543913</v>
       </c>
       <c r="T6">
-        <v>0.8062414370425579</v>
+        <v>0.08276486295543913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +850,10 @@
         <v>340.652527</v>
       </c>
       <c r="I7">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997858</v>
       </c>
       <c r="J7">
-        <v>0.9892839949531296</v>
+        <v>0.9807880605997857</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,60 +862,60 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.662736333333334</v>
+        <v>0.304966</v>
       </c>
       <c r="N7">
-        <v>7.988209000000001</v>
+        <v>0.914898</v>
       </c>
       <c r="O7">
-        <v>0.1642464018940561</v>
+        <v>0.009664827098886481</v>
       </c>
       <c r="P7">
-        <v>0.1642464018940561</v>
+        <v>0.009664827098886483</v>
       </c>
       <c r="Q7">
-        <v>302.3559535615714</v>
+        <v>34.62914618302733</v>
       </c>
       <c r="R7">
-        <v>2721.203582054143</v>
+        <v>311.662315647246</v>
       </c>
       <c r="S7">
-        <v>0.1624863366224291</v>
+        <v>0.009479147026349126</v>
       </c>
       <c r="T7">
-        <v>0.1624863366224291</v>
+        <v>0.009479147026349128</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>113.5508423333333</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H8">
-        <v>340.652527</v>
+        <v>3.162818</v>
       </c>
       <c r="I8">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J8">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,90 +924,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.327069</v>
+        <v>28.58650933333334</v>
       </c>
       <c r="N8">
-        <v>0.9812070000000001</v>
+        <v>85.759528</v>
       </c>
       <c r="O8">
-        <v>0.02017469989371348</v>
+        <v>0.9059490896276022</v>
       </c>
       <c r="P8">
-        <v>0.02017469989371349</v>
+        <v>0.9059490896276023</v>
       </c>
       <c r="Q8">
-        <v>37.13896045112099</v>
+        <v>30.13797542554489</v>
       </c>
       <c r="R8">
-        <v>334.250644060089</v>
+        <v>271.241778829904</v>
       </c>
       <c r="S8">
-        <v>0.01995850770783335</v>
+        <v>0.008249764479473579</v>
       </c>
       <c r="T8">
-        <v>0.01995850770783335</v>
+        <v>0.008249764479473577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>113.5508423333333</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H9">
-        <v>340.652527</v>
+        <v>3.162818</v>
       </c>
       <c r="I9">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J9">
-        <v>0.9892839949531296</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.009795</v>
+        <v>2.662736333333334</v>
       </c>
       <c r="N9">
-        <v>0.029385</v>
+        <v>7.988209000000001</v>
       </c>
       <c r="O9">
-        <v>0.0006041880626379251</v>
+        <v>0.08438608327351124</v>
       </c>
       <c r="P9">
-        <v>0.0006041880626379253</v>
+        <v>0.08438608327351126</v>
       </c>
       <c r="Q9">
-        <v>1.112230500655</v>
+        <v>2.807250134773556</v>
       </c>
       <c r="R9">
-        <v>10.010074505895</v>
+        <v>25.265251212962</v>
       </c>
       <c r="S9">
-        <v>0.0005977135803094382</v>
+        <v>0.0007684375648943771</v>
       </c>
       <c r="T9">
-        <v>0.0005977135803094385</v>
+        <v>0.0007684375648943771</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1015,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,480 +1030,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.8011793333333334</v>
+        <v>1.054272666666667</v>
       </c>
       <c r="H10">
-        <v>2.403538</v>
+        <v>3.162818</v>
       </c>
       <c r="I10">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960361</v>
       </c>
       <c r="J10">
-        <v>0.00698007936592132</v>
+        <v>0.009106212008960359</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>13.21223933333333</v>
+        <v>0.304966</v>
       </c>
       <c r="N10">
-        <v>39.636718</v>
+        <v>0.914898</v>
       </c>
       <c r="O10">
-        <v>0.8149747101495924</v>
+        <v>0.009664827098886481</v>
       </c>
       <c r="P10">
-        <v>0.8149747101495927</v>
+        <v>0.009664827098886483</v>
       </c>
       <c r="Q10">
-        <v>10.58537310092045</v>
+        <v>0.3215173180626666</v>
       </c>
       <c r="R10">
-        <v>95.26835790828402</v>
+        <v>2.893655862564</v>
       </c>
       <c r="S10">
-        <v>0.005688588158062879</v>
+        <v>8.80099645924056E-05</v>
       </c>
       <c r="T10">
-        <v>0.00568858815806288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.8011793333333334</v>
-      </c>
-      <c r="H11">
-        <v>2.403538</v>
-      </c>
-      <c r="I11">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="J11">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.662736333333334</v>
-      </c>
-      <c r="N11">
-        <v>7.988209000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.1642464018940561</v>
-      </c>
-      <c r="P11">
-        <v>0.1642464018940561</v>
-      </c>
-      <c r="Q11">
-        <v>2.133329320382445</v>
-      </c>
-      <c r="R11">
-        <v>19.19996388344201</v>
-      </c>
-      <c r="S11">
-        <v>0.001146452920787521</v>
-      </c>
-      <c r="T11">
-        <v>0.001146452920787522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.8011793333333334</v>
-      </c>
-      <c r="H12">
-        <v>2.403538</v>
-      </c>
-      <c r="I12">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="J12">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.327069</v>
-      </c>
-      <c r="N12">
-        <v>0.9812070000000001</v>
-      </c>
-      <c r="O12">
-        <v>0.02017469989371348</v>
-      </c>
-      <c r="P12">
-        <v>0.02017469989371349</v>
-      </c>
-      <c r="Q12">
-        <v>0.262040923374</v>
-      </c>
-      <c r="R12">
-        <v>2.358368310366</v>
-      </c>
-      <c r="S12">
-        <v>0.0001408210064417645</v>
-      </c>
-      <c r="T12">
-        <v>0.0001408210064417646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.8011793333333334</v>
-      </c>
-      <c r="H13">
-        <v>2.403538</v>
-      </c>
-      <c r="I13">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="J13">
-        <v>0.00698007936592132</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.009795</v>
-      </c>
-      <c r="N13">
-        <v>0.029385</v>
-      </c>
-      <c r="O13">
-        <v>0.0006041880626379251</v>
-      </c>
-      <c r="P13">
-        <v>0.0006041880626379253</v>
-      </c>
-      <c r="Q13">
-        <v>0.00784755157</v>
-      </c>
-      <c r="R13">
-        <v>0.07062796413000001</v>
-      </c>
-      <c r="S13">
-        <v>4.217280629154959E-06</v>
-      </c>
-      <c r="T13">
-        <v>4.217280629154961E-06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H14">
-        <v>0.166583</v>
-      </c>
-      <c r="I14">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J14">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>13.21223933333333</v>
-      </c>
-      <c r="N14">
-        <v>39.636718</v>
-      </c>
-      <c r="O14">
-        <v>0.8149747101495924</v>
-      </c>
-      <c r="P14">
-        <v>0.8149747101495927</v>
-      </c>
-      <c r="Q14">
-        <v>0.7336448216215555</v>
-      </c>
-      <c r="R14">
-        <v>6.602803394594</v>
-      </c>
-      <c r="S14">
-        <v>0.0003942613269000068</v>
-      </c>
-      <c r="T14">
-        <v>0.0003942613269000068</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H15">
-        <v>0.166583</v>
-      </c>
-      <c r="I15">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J15">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2.662736333333334</v>
-      </c>
-      <c r="N15">
-        <v>7.988209000000001</v>
-      </c>
-      <c r="O15">
-        <v>0.1642464018940561</v>
-      </c>
-      <c r="P15">
-        <v>0.1642464018940561</v>
-      </c>
-      <c r="Q15">
-        <v>0.1478555355385556</v>
-      </c>
-      <c r="R15">
-        <v>1.330699819847</v>
-      </c>
-      <c r="S15">
-        <v>7.945768567151742E-05</v>
-      </c>
-      <c r="T15">
-        <v>7.945768567151743E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H16">
-        <v>0.166583</v>
-      </c>
-      <c r="I16">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J16">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.327069</v>
-      </c>
-      <c r="N16">
-        <v>0.9812070000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.02017469989371348</v>
-      </c>
-      <c r="P16">
-        <v>0.02017469989371349</v>
-      </c>
-      <c r="Q16">
-        <v>0.018161378409</v>
-      </c>
-      <c r="R16">
-        <v>0.163452405681</v>
-      </c>
-      <c r="S16">
-        <v>9.759939604070523E-06</v>
-      </c>
-      <c r="T16">
-        <v>9.759939604070524E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.05552766666666666</v>
-      </c>
-      <c r="H17">
-        <v>0.166583</v>
-      </c>
-      <c r="I17">
-        <v>0.0004837712409844451</v>
-      </c>
-      <c r="J17">
-        <v>0.000483771240984445</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.009795</v>
-      </c>
-      <c r="N17">
-        <v>0.029385</v>
-      </c>
-      <c r="O17">
-        <v>0.0006041880626379251</v>
-      </c>
-      <c r="P17">
-        <v>0.0006041880626379253</v>
-      </c>
-      <c r="Q17">
-        <v>0.0005438934949999999</v>
-      </c>
-      <c r="R17">
-        <v>0.004895041455</v>
-      </c>
-      <c r="S17">
-        <v>2.922888088503367E-07</v>
-      </c>
-      <c r="T17">
-        <v>2.922888088503367E-07</v>
+        <v>8.80099645924056E-05</v>
       </c>
     </row>
   </sheetData>
